--- a/data/InputData.xlsx
+++ b/data/InputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\python\workforce_scheduling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\workforce_scheduling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06817145-2D20-4DA3-8E49-22CB4F1B07B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1978AD-FE83-488F-B2D2-D9800BA772C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-119" yWindow="-119" windowWidth="25603" windowHeight="13898" xr2:uid="{BCDF856C-6F0D-487F-8BC7-04FD1FA73F2E}"/>
+    <workbookView xWindow="4068" yWindow="5712" windowWidth="14532" windowHeight="6936" xr2:uid="{BCDF856C-6F0D-487F-8BC7-04FD1FA73F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -134,6 +139,9 @@
   </si>
   <si>
     <t>Ruth</t>
+  </si>
+  <si>
+    <t>Cheyenne</t>
   </si>
 </sst>
 </file>
@@ -199,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -208,10 +216,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -227,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56438F95-CB28-49F8-8745-B51411212C3C}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -787,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>20</v>
@@ -819,10 +826,42 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -835,10 +874,10 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="25" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -921,7 +960,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -998,7 +1037,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -1075,7 +1114,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
@@ -1152,7 +1191,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -1229,7 +1268,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -1306,7 +1345,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7">
@@ -1392,10 +1431,10 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
@@ -1406,51 +1445,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6">
-        <v>43934</v>
+        <v>45122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6">
-        <v>43935</v>
+        <v>45123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="6">
-        <v>43936</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6">
-        <v>43937</v>
+        <v>45125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>43938</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6">
-        <v>43939</v>
+        <v>45127</v>
       </c>
     </row>
   </sheetData>
@@ -1463,10 +1502,10 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
@@ -1539,7 +1578,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
@@ -1547,7 +1586,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -1572,10 +1611,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>

--- a/data/InputData.xlsx
+++ b/data/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\workforce_scheduling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1978AD-FE83-488F-B2D2-D9800BA772C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5675D370-D64F-4D36-838D-6630FB1D75D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4068" yWindow="5712" windowWidth="14532" windowHeight="6936" xr2:uid="{BCDF856C-6F0D-487F-8BC7-04FD1FA73F2E}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17508" windowHeight="9000" xr2:uid="{BCDF856C-6F0D-487F-8BC7-04FD1FA73F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Denis</t>
-  </si>
-  <si>
     <t>timeInSeconds</t>
   </si>
   <si>
@@ -120,28 +117,31 @@
     <t>max_employee_WorkingTime_per_Day</t>
   </si>
   <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Carrie</t>
-  </si>
-  <si>
-    <t>Jaden</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Ruth</t>
-  </si>
-  <si>
-    <t>Cheyenne</t>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Demitry</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Chantelle</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56438F95-CB28-49F8-8745-B51411212C3C}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,36 +549,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>20</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -884,7 +884,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4">
         <v>0.33333333333333331</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1438,15 +1438,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>45122</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6">
         <v>45123</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6">
         <v>45124</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6">
         <v>45125</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6">
         <v>45126</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6">
         <v>45127</v>
@@ -1516,89 +1516,89 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1624,17 +1624,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.01</v>
